--- a/analise.xlsx
+++ b/analise.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rptok\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93918AC4-4FC5-47D5-9AC7-8C2B1A9D5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D253C536-760B-49C8-AA20-EE8F4F469EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="294">
   <si>
     <t>LESÃO</t>
   </si>
@@ -130,39 +130,9 @@
     <t>mmg1r-bicubica</t>
   </si>
   <si>
-    <t>28436.54</t>
-  </si>
-  <si>
-    <t>2995.83</t>
-  </si>
-  <si>
-    <t>2281.83</t>
-  </si>
-  <si>
-    <t>3286.59</t>
-  </si>
-  <si>
-    <t>2508.20</t>
-  </si>
-  <si>
     <t>3.26</t>
   </si>
   <si>
-    <t>28593.35</t>
-  </si>
-  <si>
-    <t>2995.97</t>
-  </si>
-  <si>
-    <t>2281.90</t>
-  </si>
-  <si>
-    <t>3286.05</t>
-  </si>
-  <si>
-    <t>2508.08</t>
-  </si>
-  <si>
     <t>83.23%</t>
   </si>
   <si>
@@ -175,15 +145,6 @@
     <t>0.003</t>
   </si>
   <si>
-    <t>28602.99</t>
-  </si>
-  <si>
-    <t>2993.97</t>
-  </si>
-  <si>
-    <t>2281.36</t>
-  </si>
-  <si>
     <t>9.43%</t>
   </si>
   <si>
@@ -196,93 +157,24 @@
     <t>mmg1r-biquadratica</t>
   </si>
   <si>
-    <t>28439.65</t>
-  </si>
-  <si>
-    <t>2995.84</t>
-  </si>
-  <si>
-    <t>2281.84</t>
-  </si>
-  <si>
-    <t>3286.34</t>
-  </si>
-  <si>
-    <t>2508.15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 91.67%</t>
   </si>
   <si>
-    <t>28605.31</t>
-  </si>
-  <si>
-    <t>2995.95</t>
-  </si>
-  <si>
-    <t>3286.04</t>
-  </si>
-  <si>
-    <t>2508.09</t>
-  </si>
-  <si>
-    <t>28639.41</t>
-  </si>
-  <si>
-    <t>2994.51</t>
-  </si>
-  <si>
-    <t>2281.48</t>
-  </si>
-  <si>
     <t>4.27</t>
   </si>
   <si>
     <t>mmg1r-spline3</t>
   </si>
   <si>
-    <t>28626.03</t>
-  </si>
-  <si>
-    <t>2281.75</t>
-  </si>
-  <si>
-    <t>3286.31</t>
-  </si>
-  <si>
-    <t>2508.33</t>
-  </si>
-  <si>
     <t>3.29</t>
   </si>
   <si>
-    <t>28677.26</t>
-  </si>
-  <si>
-    <t>3286.18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 83.35%</t>
   </si>
   <si>
     <t>3.32</t>
   </si>
   <si>
-    <t>28619.4</t>
-  </si>
-  <si>
-    <t>2994.92</t>
-  </si>
-  <si>
-    <t>2281.55</t>
-  </si>
-  <si>
-    <t>3286.09</t>
-  </si>
-  <si>
-    <t>2508.45</t>
-  </si>
-  <si>
     <t>13.60%</t>
   </si>
   <si>
@@ -328,18 +220,6 @@
     <t>mmg4r-bicubica</t>
   </si>
   <si>
-    <t>44883.38</t>
-  </si>
-  <si>
-    <t>2775.88</t>
-  </si>
-  <si>
-    <t>1203.83</t>
-  </si>
-  <si>
-    <t>3260.31</t>
-  </si>
-  <si>
     <t>75.21%</t>
   </si>
   <si>
@@ -349,39 +229,12 @@
     <t>2.16</t>
   </si>
   <si>
-    <t>45153.3</t>
-  </si>
-  <si>
-    <t>2775.81</t>
-  </si>
-  <si>
-    <t>1203.75</t>
-  </si>
-  <si>
-    <t>3260.03</t>
-  </si>
-  <si>
-    <t>1474.35</t>
-  </si>
-  <si>
     <t>74.80%</t>
   </si>
   <si>
     <t>96.91%</t>
   </si>
   <si>
-    <t>45330.55</t>
-  </si>
-  <si>
-    <t>1203.29</t>
-  </si>
-  <si>
-    <t>3260.62</t>
-  </si>
-  <si>
-    <t>1479.12</t>
-  </si>
-  <si>
     <t>11.89%</t>
   </si>
   <si>
@@ -394,18 +247,6 @@
     <t>mmg4r-biquadratica</t>
   </si>
   <si>
-    <t>44890.22</t>
-  </si>
-  <si>
-    <t>2775.87</t>
-  </si>
-  <si>
-    <t>1203.84</t>
-  </si>
-  <si>
-    <t>3260.29</t>
-  </si>
-  <si>
     <t>75.24%</t>
   </si>
   <si>
@@ -415,33 +256,12 @@
     <t>2.17</t>
   </si>
   <si>
-    <t>45166.84</t>
-  </si>
-  <si>
-    <t>2775.79</t>
-  </si>
-  <si>
-    <t>3260.01</t>
-  </si>
-  <si>
-    <t>1474.28</t>
-  </si>
-  <si>
     <t>74.77%</t>
   </si>
   <si>
     <t>96.88%</t>
   </si>
   <si>
-    <t>45330.36</t>
-  </si>
-  <si>
-    <t>1203.54</t>
-  </si>
-  <si>
-    <t>1476.64</t>
-  </si>
-  <si>
     <t>11.95%</t>
   </si>
   <si>
@@ -454,36 +274,15 @@
     <t>mmg4r-spline3</t>
   </si>
   <si>
-    <t>45236.18</t>
-  </si>
-  <si>
     <t>2.13</t>
   </si>
   <si>
-    <t>45274.55</t>
-  </si>
-  <si>
-    <t>1474.31</t>
-  </si>
-  <si>
     <t>74.02%</t>
   </si>
   <si>
     <t>95.91%</t>
   </si>
   <si>
-    <t>45359.15</t>
-  </si>
-  <si>
-    <t>1203.63</t>
-  </si>
-  <si>
-    <t>3260.17</t>
-  </si>
-  <si>
-    <t>1478.99</t>
-  </si>
-  <si>
     <t>12.00%</t>
   </si>
   <si>
@@ -523,15 +322,6 @@
     <t>94.58%</t>
   </si>
   <si>
-    <t>25730.7</t>
-  </si>
-  <si>
-    <t>2287.47</t>
-  </si>
-  <si>
-    <t>2501.32</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 56.68%</t>
   </si>
   <si>
@@ -541,21 +331,6 @@
     <t>3.79</t>
   </si>
   <si>
-    <t>26160.15</t>
-  </si>
-  <si>
-    <t>3007.85</t>
-  </si>
-  <si>
-    <t>2287.65</t>
-  </si>
-  <si>
-    <t>3273.35</t>
-  </si>
-  <si>
-    <t>2501.25</t>
-  </si>
-  <si>
     <t>55.07%</t>
   </si>
   <si>
@@ -565,18 +340,6 @@
     <t>3.70</t>
   </si>
   <si>
-    <t>25958.05</t>
-  </si>
-  <si>
-    <t>2287.17</t>
-  </si>
-  <si>
-    <t>3278.07</t>
-  </si>
-  <si>
-    <t>2501.64</t>
-  </si>
-  <si>
     <t>23.39%</t>
   </si>
   <si>
@@ -586,15 +349,6 @@
     <t>4.28</t>
   </si>
   <si>
-    <t>25737.27</t>
-  </si>
-  <si>
-    <t>2287.54</t>
-  </si>
-  <si>
-    <t>2500.70</t>
-  </si>
-  <si>
     <t>56.62%</t>
   </si>
   <si>
@@ -604,21 +358,6 @@
     <t>3.78</t>
   </si>
   <si>
-    <t>26161.04</t>
-  </si>
-  <si>
-    <t>3007.75</t>
-  </si>
-  <si>
-    <t>2287.57</t>
-  </si>
-  <si>
-    <t>3272.74</t>
-  </si>
-  <si>
-    <t>2500.11</t>
-  </si>
-  <si>
     <t>54.89%</t>
   </si>
   <si>
@@ -628,33 +367,12 @@
     <t>3.72</t>
   </si>
   <si>
-    <t>25973.12</t>
-  </si>
-  <si>
-    <t>2287.32</t>
-  </si>
-  <si>
-    <t>3276.80</t>
-  </si>
-  <si>
-    <t>2500.14</t>
-  </si>
-  <si>
     <t>23.45%</t>
   </si>
   <si>
     <t>92.69%</t>
   </si>
   <si>
-    <t>25901.18</t>
-  </si>
-  <si>
-    <t>2287.37</t>
-  </si>
-  <si>
-    <t>2500.08</t>
-  </si>
-  <si>
     <t>57.82%</t>
   </si>
   <si>
@@ -664,18 +382,6 @@
     <t>3.71</t>
   </si>
   <si>
-    <t>26202.07</t>
-  </si>
-  <si>
-    <t>2286.68</t>
-  </si>
-  <si>
-    <t>3272.21</t>
-  </si>
-  <si>
-    <t>2500.59</t>
-  </si>
-  <si>
     <t>55.25%</t>
   </si>
   <si>
@@ -685,15 +391,6 @@
     <t>3.58</t>
   </si>
   <si>
-    <t>26038.11</t>
-  </si>
-  <si>
-    <t>3277.46</t>
-  </si>
-  <si>
-    <t>2501.56</t>
-  </si>
-  <si>
     <t>23.51%</t>
   </si>
   <si>
@@ -727,15 +424,6 @@
     <t>2.97</t>
   </si>
   <si>
-    <t>41428.47</t>
-  </si>
-  <si>
-    <t>1203.72</t>
-  </si>
-  <si>
-    <t>1472.86</t>
-  </si>
-  <si>
     <t>50.68%</t>
   </si>
   <si>
@@ -745,33 +433,12 @@
     <t>2.30</t>
   </si>
   <si>
-    <t>42813.46</t>
-  </si>
-  <si>
-    <t>2775.99</t>
-  </si>
-  <si>
-    <t>1207.10</t>
-  </si>
-  <si>
-    <t>3244.07</t>
-  </si>
-  <si>
-    <t>1472.35</t>
-  </si>
-  <si>
     <t>46.41%</t>
   </si>
   <si>
     <t>80.95%</t>
   </si>
   <si>
-    <t>42252.49</t>
-  </si>
-  <si>
-    <t>2772.68</t>
-  </si>
-  <si>
     <t>6.02%</t>
   </si>
   <si>
@@ -781,18 +448,6 @@
     <t>2.79</t>
   </si>
   <si>
-    <t>41434.57</t>
-  </si>
-  <si>
-    <t>2775.41</t>
-  </si>
-  <si>
-    <t>1203.42</t>
-  </si>
-  <si>
-    <t>1472.37</t>
-  </si>
-  <si>
     <t>51.10%</t>
   </si>
   <si>
@@ -802,57 +457,24 @@
     <t>2.39</t>
   </si>
   <si>
-    <t>42810.12</t>
-  </si>
-  <si>
-    <t>1207.17</t>
-  </si>
-  <si>
-    <t>3244.08</t>
-  </si>
-  <si>
-    <t>1472.31</t>
-  </si>
-  <si>
     <t>46.60%</t>
   </si>
   <si>
     <t>81.29%</t>
   </si>
   <si>
-    <t>42263.2</t>
-  </si>
-  <si>
-    <t>2773.03</t>
-  </si>
-  <si>
     <t>6.18%</t>
   </si>
   <si>
     <t>81.99%</t>
   </si>
   <si>
-    <t>41660.83</t>
-  </si>
-  <si>
-    <t>42871.76</t>
-  </si>
-  <si>
     <t>46.30%</t>
   </si>
   <si>
     <t>80.75%</t>
   </si>
   <si>
-    <t>42257.45</t>
-  </si>
-  <si>
-    <t>2775.96</t>
-  </si>
-  <si>
-    <t>3248.01</t>
-  </si>
-  <si>
     <t>10.06%</t>
   </si>
   <si>
@@ -871,159 +493,6 @@
     <t>NODE REMOVAL: 7</t>
   </si>
   <si>
-    <t>3013662.32</t>
-  </si>
-  <si>
-    <t>-0.92</t>
-  </si>
-  <si>
-    <t>3579.14</t>
-  </si>
-  <si>
-    <t>3582.31</t>
-  </si>
-  <si>
-    <t>3013662.29</t>
-  </si>
-  <si>
-    <t>-0.99</t>
-  </si>
-  <si>
-    <t>3579.20</t>
-  </si>
-  <si>
-    <t>3582.17</t>
-  </si>
-  <si>
-    <t>3013655.43</t>
-  </si>
-  <si>
-    <t>2377.95</t>
-  </si>
-  <si>
-    <t>-1.87</t>
-  </si>
-  <si>
-    <t>3579.37</t>
-  </si>
-  <si>
-    <t>3586.84</t>
-  </si>
-  <si>
-    <t>7255682.67</t>
-  </si>
-  <si>
-    <t>1225.48</t>
-  </si>
-  <si>
-    <t>17.79</t>
-  </si>
-  <si>
-    <t>3582.2</t>
-  </si>
-  <si>
-    <t>3582.4</t>
-  </si>
-  <si>
-    <t>7255700.02</t>
-  </si>
-  <si>
-    <t>1225.54</t>
-  </si>
-  <si>
-    <t>3582.18</t>
-  </si>
-  <si>
-    <t>3582.45</t>
-  </si>
-  <si>
-    <t>7255839.14</t>
-  </si>
-  <si>
-    <t>1225.61</t>
-  </si>
-  <si>
-    <t>3583.05</t>
-  </si>
-  <si>
-    <t>3008197.61</t>
-  </si>
-  <si>
-    <t>2379.54</t>
-  </si>
-  <si>
-    <t>-1.88</t>
-  </si>
-  <si>
-    <t>3578.28</t>
-  </si>
-  <si>
-    <t>3580.64</t>
-  </si>
-  <si>
-    <t>3008189.11</t>
-  </si>
-  <si>
-    <t>2379.57</t>
-  </si>
-  <si>
-    <t>3578.41</t>
-  </si>
-  <si>
-    <t>3580.35</t>
-  </si>
-  <si>
-    <t>3008235.1</t>
-  </si>
-  <si>
-    <t>2378.92</t>
-  </si>
-  <si>
-    <t>-3.69</t>
-  </si>
-  <si>
-    <t>3577.8</t>
-  </si>
-  <si>
-    <t>3584.56</t>
-  </si>
-  <si>
-    <t>7249164.7</t>
-  </si>
-  <si>
-    <t>1227.51</t>
-  </si>
-  <si>
-    <t>19.55</t>
-  </si>
-  <si>
-    <t>3580.33</t>
-  </si>
-  <si>
-    <t>3580.52</t>
-  </si>
-  <si>
-    <t>1227.56</t>
-  </si>
-  <si>
-    <t>19.57</t>
-  </si>
-  <si>
-    <t>3580.25</t>
-  </si>
-  <si>
-    <t>3580.73</t>
-  </si>
-  <si>
-    <t>7249228.13</t>
-  </si>
-  <si>
-    <t>19.35</t>
-  </si>
-  <si>
-    <t>3580.74</t>
-  </si>
-  <si>
     <t>thres 3.0</t>
   </si>
   <si>
@@ -1160,6 +629,279 @@
   </si>
   <si>
     <t>2.34</t>
+  </si>
+  <si>
+    <t>28531.285 ± 94.745</t>
+  </si>
+  <si>
+    <t>291.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>227.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>473.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>269.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>265.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>271.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>1201.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>2353.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>3561.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>3565.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>45059.78 ± 176.4</t>
+  </si>
+  <si>
+    <t>2995915 ± 0.085</t>
+  </si>
+  <si>
+    <t>2775.94 ± 0.06</t>
+  </si>
+  <si>
+    <t>2281.875 ± 0.125</t>
+  </si>
+  <si>
+    <t>1203.915 ± 0.085</t>
+  </si>
+  <si>
+    <t>3286.295 ± 0.295</t>
+  </si>
+  <si>
+    <t>2508.165 ± 0.165</t>
+  </si>
+  <si>
+    <t>3260.155 ± 0.155</t>
+  </si>
+  <si>
+    <t>1198.5 ± 1.5</t>
+  </si>
+  <si>
+    <t>25815.94 ± 85.24</t>
+  </si>
+  <si>
+    <t>41544.65 ± 116.18</t>
+  </si>
+  <si>
+    <t>2775.705 ± 0.295</t>
+  </si>
+  <si>
+    <t>2287.685 ± 0.315</t>
+  </si>
+  <si>
+    <t>1203.71 ± 0.29</t>
+  </si>
+  <si>
+    <t>2500.66 ± 0.66</t>
+  </si>
+  <si>
+    <t>1472.43 ± 0.43</t>
+  </si>
+  <si>
+    <t>214 ± 1</t>
+  </si>
+  <si>
+    <t>2377.975 ± 0.025</t>
+  </si>
+  <si>
+    <t>3013609.16 ± 53.16</t>
+  </si>
+  <si>
+    <t>7255760.9 ± 78.235</t>
+  </si>
+  <si>
+    <t>1225.74 ± 0.26</t>
+  </si>
+  <si>
+    <t>2357.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>3586.5 ± 3.5</t>
+  </si>
+  <si>
+    <t>3585 ± 4</t>
+  </si>
+  <si>
+    <t>—0.935 ± 0.935</t>
+  </si>
+  <si>
+    <t>17.895 ± 0.105</t>
+  </si>
+  <si>
+    <t>3578.685 ± 0.685</t>
+  </si>
+  <si>
+    <t>3584.42 ± 2.42</t>
+  </si>
+  <si>
+    <t>3582.1 ± 0.1</t>
+  </si>
+  <si>
+    <t>3582.225 ± 0.225</t>
+  </si>
+  <si>
+    <t>474.5 ± 1.5</t>
+  </si>
+  <si>
+    <t>274 ± 1</t>
+  </si>
+  <si>
+    <t>483 ± 1</t>
+  </si>
+  <si>
+    <t>292 ± 1</t>
+  </si>
+  <si>
+    <t>1473 ± 5</t>
+  </si>
+  <si>
+    <t>270 ± 5</t>
+  </si>
+  <si>
+    <t>274 ± 3</t>
+  </si>
+  <si>
+    <t>214.5 ± 1.5</t>
+  </si>
+  <si>
+    <t>3582.28 ± 2.28</t>
+  </si>
+  <si>
+    <t>3580.37 ± 0.37</t>
+  </si>
+  <si>
+    <t>—1.845 ± 1.845</t>
+  </si>
+  <si>
+    <t>3007993.55 ± 241.55</t>
+  </si>
+  <si>
+    <t>7249098.05 ± 130.065</t>
+  </si>
+  <si>
+    <t>2379.46 ± 0.54</t>
+  </si>
+  <si>
+    <t>1227.755 ± 0.745</t>
+  </si>
+  <si>
+    <t>19.675 ± 0.325</t>
+  </si>
+  <si>
+    <t>3577.205 ± 1.205</t>
+  </si>
+  <si>
+    <t>3580.165 ± 0.165</t>
+  </si>
+  <si>
+    <t>2508.225 ± 0.225</t>
+  </si>
+  <si>
+    <t>3286.45 ± 0.45</t>
+  </si>
+  <si>
+    <t>1476.56 ± 2.56</t>
+  </si>
+  <si>
+    <t>3260.31 ± 0.31</t>
+  </si>
+  <si>
+    <t>2500.82 ± 0.82</t>
+  </si>
+  <si>
+    <t>2287.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>1203.645 ± 0.355</t>
+  </si>
+  <si>
+    <t>2281.68 ± 0.32</t>
+  </si>
+  <si>
+    <t>2774.34 ± 1.66</t>
+  </si>
+  <si>
+    <t>3277.035 ± 1.035</t>
+  </si>
+  <si>
+    <t>2994.985 ± 1.985</t>
+  </si>
+  <si>
+    <t>28622.495 ± 19.505</t>
+  </si>
+  <si>
+    <t>45358.18 ± 27.82</t>
+  </si>
+  <si>
+    <t>26047.025 ± 88.975</t>
+  </si>
+  <si>
+    <t>42350.245 ± 97.755</t>
+  </si>
+  <si>
+    <t>2500.625 ± 0.625</t>
+  </si>
+  <si>
+    <t>1474.175 ± 0.175</t>
+  </si>
+  <si>
+    <t>2508.045 ± 0.045</t>
+  </si>
+  <si>
+    <t>1472.175 ± 0.175</t>
+  </si>
+  <si>
+    <t>28641.675 ± 48.325</t>
+  </si>
+  <si>
+    <t>45225.65 ± 72.35</t>
+  </si>
+  <si>
+    <t>2775.895 ± 0.105</t>
+  </si>
+  <si>
+    <t>3007.875 ± 0.125</t>
+  </si>
+  <si>
+    <t>2281.95 ± 0.05</t>
+  </si>
+  <si>
+    <t>1203.875 ± 0.125</t>
+  </si>
+  <si>
+    <t>3286.09 ± 0.09</t>
+  </si>
+  <si>
+    <t>3244.04 ± 0.04</t>
+  </si>
+  <si>
+    <t>3272.675 ± 0.675</t>
+  </si>
+  <si>
+    <t>26176.075 ± 15.925</t>
+  </si>
+  <si>
+    <t>42839.88 ± 31.88</t>
+  </si>
+  <si>
+    <t>1207.55 ± 0.55</t>
+  </si>
+  <si>
+    <t>2287.34 ± 0.66</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1007,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1282,9 +1024,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,11 +1034,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,22 +1050,25 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1549,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1559,21 +1297,22 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="11" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="34.42578125" customWidth="1"/>
     <col min="14" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="22" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" customWidth="1"/>
     <col min="24" max="24" width="17.140625" customWidth="1"/>
     <col min="25" max="25" width="13.5703125" customWidth="1"/>
     <col min="26" max="26" width="16.5703125" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" customWidth="1"/>
-    <col min="28" max="33" width="8.7109375" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.28515625" customWidth="1"/>
     <col min="35" max="35" width="17.140625" customWidth="1"/>
     <col min="36" max="36" width="13.5703125" customWidth="1"/>
@@ -1614,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2"/>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1653,12 +1392,12 @@
         <v>225</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4">
@@ -1692,7 +1431,7 @@
         <v>274</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P3" s="4"/>
@@ -1727,7 +1466,7 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1751,16 +1490,16 @@
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -1784,16 +1523,16 @@
       <c r="V5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="X5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="Z5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AA5" s="1" t="s">
@@ -1817,13 +1556,13 @@
       <c r="AG5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AH5" s="19" t="s">
+      <c r="AH5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AI5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="20" t="s">
+      <c r="AJ5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1831,100 +1570,100 @@
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4">
-        <v>28472</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="22">
+        <v>2</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q6" s="22">
         <v>2996</v>
       </c>
-      <c r="G6" s="4">
-        <v>2282</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3286</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2508</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="R6" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="U6" s="22">
         <v>291</v>
       </c>
-      <c r="K6" s="4">
+      <c r="V6" s="22">
         <v>227</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>28690</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2996</v>
-      </c>
-      <c r="R6" s="4">
-        <v>2282</v>
-      </c>
-      <c r="S6" s="4">
-        <v>3286</v>
-      </c>
-      <c r="T6" s="4">
-        <v>2508</v>
-      </c>
-      <c r="U6" s="4">
-        <v>291</v>
-      </c>
-      <c r="V6" s="4">
-        <v>227</v>
-      </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="4">
-        <v>28642</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>2996</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>2282</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>3286</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>2508</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>291</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>227</v>
-      </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AA6" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC6" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD6" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE6" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF6" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG6" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AI6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1932,713 +1671,441 @@
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="X7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="Y7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="Z7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="4">
-        <v>292</v>
-      </c>
-      <c r="K7" s="4">
-        <v>227</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="4">
-        <v>2</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U7" s="4">
-        <v>291</v>
-      </c>
-      <c r="V7" s="4">
-        <v>227</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>3286</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>2508</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>293</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>228</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="4">
-        <v>291</v>
-      </c>
-      <c r="K8" s="4">
-        <v>227</v>
-      </c>
-      <c r="L8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="4">
-        <v>2</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="4">
-        <v>291</v>
-      </c>
-      <c r="V8" s="4">
-        <v>227</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>3286</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>2508</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>292</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>228</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>71</v>
+      <c r="AI8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2996</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="4">
-        <v>291</v>
-      </c>
-      <c r="K9" s="4">
-        <v>228</v>
-      </c>
-      <c r="L9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="4">
-        <v>2</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>2996</v>
-      </c>
-      <c r="R9" s="4">
-        <v>2282</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="4">
-        <v>291</v>
-      </c>
-      <c r="V9" s="4">
-        <v>227</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="X9" s="9" t="s">
+      <c r="N9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" s="9" t="s">
-        <v>81</v>
+      <c r="Y9" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>292</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>228</v>
-      </c>
-      <c r="AH9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>89</v>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="4">
-        <v>44952</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="A10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1476</v>
+      </c>
+      <c r="J10" s="22">
+        <v>485</v>
+      </c>
+      <c r="K10" s="22">
+        <v>273</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="22">
+        <v>2</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="S10" s="22">
+        <v>3260</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="U10" s="22">
+        <v>485</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB10" s="22">
         <v>2776</v>
       </c>
-      <c r="G10" s="4">
-        <v>1204</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3260</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1476</v>
-      </c>
-      <c r="J10" s="4">
-        <v>485</v>
-      </c>
-      <c r="K10" s="4">
-        <v>273</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="4">
-        <v>2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>45298</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>2776</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1204</v>
-      </c>
-      <c r="S10" s="4">
-        <v>3260</v>
-      </c>
-      <c r="T10" s="4">
-        <v>1474</v>
-      </c>
-      <c r="U10" s="4">
-        <v>485</v>
-      </c>
-      <c r="V10" s="4">
-        <v>271</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>45386</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>2776</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>1204</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>3260</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>1474</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>485</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>271</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>100</v>
+      <c r="AC10" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD10" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE10" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG10" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1476</v>
-      </c>
-      <c r="J11" s="4">
-        <v>485</v>
-      </c>
-      <c r="K11" s="4">
-        <v>273</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="4">
-        <v>2</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="U11" s="4">
-        <v>485</v>
-      </c>
-      <c r="V11" s="4">
-        <v>272</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y11" s="10">
+      <c r="A11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11" s="9">
         <v>45567</v>
       </c>
-      <c r="Z11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>2776</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>486</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>277</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
-        <v>122</v>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1476</v>
-      </c>
-      <c r="J12" s="4">
-        <v>485</v>
-      </c>
-      <c r="K12" s="4">
-        <v>273</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="U12" s="4">
-        <v>485</v>
-      </c>
-      <c r="V12" s="4">
-        <v>272</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y12" s="10">
+      <c r="A12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" s="9">
         <v>45598</v>
       </c>
-      <c r="Z12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>2776</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>3260</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>484</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>274</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
-        <v>142</v>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2776</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1204</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3260</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1476</v>
-      </c>
-      <c r="J13" s="4">
-        <v>485</v>
-      </c>
-      <c r="K13" s="4">
-        <v>273</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" s="4">
-        <v>2</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>2776</v>
-      </c>
-      <c r="R13" s="4">
-        <v>1204</v>
-      </c>
-      <c r="S13" s="4">
-        <v>3260</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="U13" s="4">
-        <v>485</v>
-      </c>
-      <c r="V13" s="4">
-        <v>271</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y13" s="12">
+      <c r="A13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="10">
         <v>45324</v>
       </c>
-      <c r="Z13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>2776</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>485</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>276</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>156</v>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2648,9 +2115,9 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
@@ -2665,10 +2132,10 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>158</v>
+        <v>90</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -2691,10 +2158,10 @@
       <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="8" t="s">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -2718,10 +2185,10 @@
       <c r="V15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="8" t="s">
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AA15" s="1" t="s">
@@ -2745,111 +2212,111 @@
       <c r="AG15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="4">
-        <v>25816</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="B16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="22">
         <v>3004</v>
       </c>
-      <c r="G16" s="4">
-        <v>2288</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="22">
         <v>3276</v>
       </c>
-      <c r="I16" s="4">
-        <v>2500</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="I16" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="22">
         <v>273</v>
       </c>
-      <c r="K16" s="4">
-        <v>213</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="K16" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="22">
         <v>2</v>
       </c>
-      <c r="P16" s="4">
-        <v>26192</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>3008</v>
-      </c>
-      <c r="R16" s="4">
-        <v>2288</v>
-      </c>
-      <c r="S16" s="4">
-        <v>3272</v>
-      </c>
-      <c r="T16" s="4">
-        <v>2500</v>
-      </c>
-      <c r="U16" s="4">
-        <v>265</v>
-      </c>
-      <c r="V16" s="4">
-        <v>213</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z16" s="4" t="s">
+      <c r="P16" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="V16" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AA16" s="4">
-        <v>26136</v>
-      </c>
-      <c r="AB16" s="4">
+      <c r="AA16" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB16" s="22">
         <v>3004</v>
       </c>
-      <c r="AC16" s="4">
-        <v>2288</v>
-      </c>
-      <c r="AD16" s="4">
-        <v>3276</v>
-      </c>
-      <c r="AE16" s="4">
-        <v>2500</v>
-      </c>
-      <c r="AF16" s="4">
-        <v>273</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>213</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI16" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ16" s="15">
+      <c r="AC16" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD16" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE16" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF16" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG16" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ16" s="12">
         <v>45355</v>
       </c>
     </row>
@@ -2857,707 +2324,433 @@
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="4">
-        <v>3004</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3276</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="4">
-        <v>273</v>
-      </c>
-      <c r="K17" s="4">
-        <v>215</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O17" s="4">
-        <v>2</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="U17" s="4">
-        <v>266</v>
-      </c>
-      <c r="V17" s="4">
-        <v>215</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>3004</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>275</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>215</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>187</v>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3004</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" s="4">
-        <v>3276</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" s="4">
-        <v>273</v>
-      </c>
-      <c r="K18" s="4">
-        <v>214</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="O18" s="4">
-        <v>2</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="U18" s="4">
-        <v>266</v>
-      </c>
-      <c r="V18" s="4">
-        <v>214</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y18" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB18" s="4">
-        <v>3004</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>274</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>214</v>
-      </c>
-      <c r="AH18" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3004</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3276</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J19" s="4">
-        <v>273</v>
-      </c>
-      <c r="K19" s="4">
-        <v>214</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>3008</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="U19" s="4">
-        <v>266</v>
-      </c>
-      <c r="V19" s="4">
-        <v>215</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>3004</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>2287</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>274</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>216</v>
-      </c>
-      <c r="AH19" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI19" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ19" s="6" t="s">
-        <v>226</v>
+        <v>47</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="4">
-        <v>41528</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="A20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="22">
+        <v>3248</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" s="22">
+        <v>3</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q20" s="22">
         <v>2776</v>
       </c>
-      <c r="G20" s="4">
+      <c r="R20" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="U20" s="22">
+        <v>469</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>45537</v>
+      </c>
+      <c r="Z20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB20" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC20" s="22">
         <v>1204</v>
       </c>
-      <c r="H20" s="4">
+      <c r="AD20" s="22">
         <v>3248</v>
       </c>
-      <c r="I20" s="4">
-        <v>1472</v>
-      </c>
-      <c r="J20" s="4">
-        <v>473</v>
-      </c>
-      <c r="K20" s="4">
-        <v>269</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="O20" s="4">
-        <v>3</v>
-      </c>
-      <c r="P20" s="4">
-        <v>42808</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>2776</v>
-      </c>
-      <c r="R20" s="4">
-        <v>1208</v>
-      </c>
-      <c r="S20" s="4">
-        <v>3244</v>
-      </c>
-      <c r="T20" s="4">
-        <v>1472</v>
-      </c>
-      <c r="U20" s="4">
-        <v>469</v>
-      </c>
-      <c r="V20" s="4">
-        <v>265</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y20" s="12">
-        <v>45537</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA20" s="4">
-        <v>42448</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>2776</v>
-      </c>
-      <c r="AC20" s="4">
-        <v>1204</v>
-      </c>
-      <c r="AD20" s="4">
-        <v>3248</v>
-      </c>
-      <c r="AE20" s="4">
-        <v>1468</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>473</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>265</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI20" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AJ20" s="9" t="s">
-        <v>234</v>
+      <c r="AE20" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF20" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG20" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2776</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3248</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J21" s="4">
-        <v>473</v>
-      </c>
-      <c r="K21" s="4">
-        <v>270</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O21" s="4">
-        <v>3</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="U21" s="4">
-        <v>469</v>
-      </c>
-      <c r="V21" s="4">
-        <v>266</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y21" s="10">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y21" s="9">
         <v>45598</v>
       </c>
-      <c r="Z21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>1204</v>
-      </c>
-      <c r="AD21" s="4">
-        <v>3248</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>1468</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>476</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>265</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>252</v>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H22" s="4">
-        <v>3248</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J22" s="4">
-        <v>474</v>
-      </c>
-      <c r="K22" s="4">
-        <v>270</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="O22" s="4">
-        <v>3</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>2776</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="U22" s="4">
-        <v>469</v>
-      </c>
-      <c r="V22" s="4">
-        <v>266</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y22" s="12">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y22" s="10">
         <v>45537</v>
       </c>
-      <c r="Z22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC22" s="16">
-        <v>1204</v>
-      </c>
-      <c r="AD22" s="4">
-        <v>3248</v>
-      </c>
-      <c r="AE22" s="4">
-        <v>1468</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>476</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>265</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
-        <v>142</v>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2776</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H23" s="4">
-        <v>3248</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J23" s="4">
-        <v>473</v>
-      </c>
-      <c r="K23" s="4">
-        <v>270</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O23" s="4">
-        <v>3</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>2776</v>
-      </c>
-      <c r="R23" s="4">
-        <v>1208</v>
-      </c>
-      <c r="S23" s="4">
-        <v>3244</v>
-      </c>
-      <c r="T23" s="4">
-        <v>1472</v>
-      </c>
-      <c r="U23" s="4">
-        <v>469</v>
-      </c>
-      <c r="V23" s="4">
-        <v>265</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y23" s="10">
+      <c r="A23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y23" s="9">
         <v>45567</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA23" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>1204</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>1478</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>473</v>
-      </c>
-      <c r="AG23" s="4">
-        <v>275</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>122</v>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,7 +2758,7 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>279</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -3597,12 +2790,12 @@
       <c r="K25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="L25" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -3610,7 +2803,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="Z25" s="17"/>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -3626,39 +2819,39 @@
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="13">
         <v>7</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <v>3000</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="13">
         <v>35</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="13">
         <v>3008699</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="13">
         <v>2380</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="13">
         <v>0</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="13">
         <v>3579</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="13">
         <v>3583</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="13">
         <v>1200</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="13">
         <v>3584</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -3682,42 +2875,42 @@
       <c r="AJ26" s="4"/>
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>16</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <v>3000</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="13">
         <v>17</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F27" s="16">
+      <c r="E27" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="13">
         <v>1227</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="13">
         <v>19</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="13">
         <v>3575</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="13">
         <v>3583</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="13">
         <v>2349</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="13">
         <v>3565</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>357</v>
+        <v>180</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -3776,10 +2969,10 @@
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="14"/>
       <c r="E29" s="1" t="s">
         <v>4</v>
       </c>
@@ -3828,38 +3021,38 @@
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E30" s="4">
-        <v>3013556</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2378</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>3578</v>
-      </c>
-      <c r="I30" s="4">
-        <v>3582</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1201</v>
-      </c>
-      <c r="K30" s="4">
-        <v>3583</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>340</v>
+      <c r="B30" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3885,35 +3078,21 @@
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2378</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1202</v>
-      </c>
-      <c r="K31" s="4">
-        <v>3584</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>337</v>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3937,37 +3116,23 @@
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2378</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1202</v>
-      </c>
-      <c r="K32" s="4">
-        <v>3584</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>337</v>
+        <v>44</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -3991,37 +3156,23 @@
     </row>
     <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1202</v>
-      </c>
-      <c r="K33" s="4">
-        <v>3590</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>345</v>
+        <v>47</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -4044,157 +3195,115 @@
       <c r="AJ33" s="4"/>
     </row>
     <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="4">
-        <v>7255780</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1226</v>
-      </c>
-      <c r="G34" s="4">
-        <v>18</v>
-      </c>
-      <c r="H34" s="4">
-        <v>3582</v>
-      </c>
-      <c r="I34" s="4">
-        <v>3582</v>
-      </c>
-      <c r="J34" s="4">
-        <v>2357</v>
-      </c>
-      <c r="K34" s="4">
-        <v>3565</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>374</v>
+      <c r="A34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="J35" s="4">
-        <v>2358</v>
-      </c>
-      <c r="K35" s="4">
-        <v>3566</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>371</v>
+      <c r="A35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J36" s="4">
-        <v>2358</v>
-      </c>
-      <c r="K36" s="4">
-        <v>3566</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="M36" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="N36" s="24" t="s">
-        <v>371</v>
+      <c r="A36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G37" s="4">
-        <v>18</v>
-      </c>
-      <c r="H37" s="4">
-        <v>3582</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J37" s="4">
-        <v>2357</v>
-      </c>
-      <c r="K37" s="4">
-        <v>3566</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>379</v>
+      <c r="A37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>158</v>
+        <v>90</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>4</v>
@@ -4217,291 +3326,207 @@
       <c r="K39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="4">
-        <v>3007752</v>
-      </c>
-      <c r="F40" s="4">
-        <v>2380</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>3576</v>
-      </c>
-      <c r="I40" s="4">
-        <v>3580</v>
-      </c>
-      <c r="J40" s="4">
-        <v>1197</v>
-      </c>
-      <c r="K40" s="4">
-        <v>3581</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>351</v>
+      <c r="B40" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1200</v>
-      </c>
-      <c r="K41" s="4">
-        <v>3584</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>348</v>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G42" s="4">
-        <v>-2</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1200</v>
-      </c>
-      <c r="K42" s="4">
-        <v>3583</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="N42" s="24" t="s">
-        <v>354</v>
+        <v>44</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J43" s="4">
-        <v>1200</v>
-      </c>
-      <c r="K43" s="4">
-        <v>3589</v>
-      </c>
-      <c r="L43" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="M43" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="N43" s="24" t="s">
-        <v>356</v>
+        <v>47</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="4">
-        <v>7248968</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1228</v>
-      </c>
-      <c r="G44" s="4">
-        <v>20</v>
-      </c>
-      <c r="H44" s="4">
-        <v>3580</v>
-      </c>
-      <c r="I44" s="4">
-        <v>3580</v>
-      </c>
-      <c r="J44" s="4">
-        <v>2353</v>
-      </c>
-      <c r="K44" s="4">
-        <v>3561</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>362</v>
+      <c r="A44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J45" s="4">
-        <v>2354</v>
-      </c>
-      <c r="K45" s="4">
-        <v>3562</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="M45" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="N45" s="24" t="s">
-        <v>359</v>
+      <c r="A45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="4">
-        <v>7249177</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J46" s="4">
-        <v>2354</v>
-      </c>
-      <c r="K46" s="4">
-        <v>3562</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="N46" s="24" t="s">
-        <v>365</v>
+      <c r="A46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M46" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1228</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H47" s="4">
-        <v>3580</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J47" s="4">
-        <v>2353</v>
-      </c>
-      <c r="K47" s="4">
-        <v>3562</v>
-      </c>
-      <c r="L47" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="M47" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="N47" s="24" t="s">
-        <v>368</v>
+      <c r="A47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5458,6 +4483,128 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="S6:S9"/>
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="AA6:AA9"/>
+    <mergeCell ref="AA10:AA13"/>
+    <mergeCell ref="AA16:AA19"/>
+    <mergeCell ref="AA20:AA23"/>
+    <mergeCell ref="T16:T19"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="T20:T23"/>
+    <mergeCell ref="Z20:Z22"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AB20:AB23"/>
+    <mergeCell ref="AD16:AD19"/>
+    <mergeCell ref="AB6:AB9"/>
+    <mergeCell ref="AE6:AE9"/>
+    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AE10:AE13"/>
+    <mergeCell ref="AD10:AD13"/>
+    <mergeCell ref="AE16:AE19"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="AC16:AC19"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="Q16:Q19"/>
+    <mergeCell ref="U6:U9"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="U20:U23"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="U16:U19"/>
+    <mergeCell ref="V16:V19"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="V20:V23"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AB10:AB13"/>
+    <mergeCell ref="AB16:AB19"/>
+    <mergeCell ref="AC20:AC23"/>
+    <mergeCell ref="Z16:Z19"/>
+    <mergeCell ref="Z10:Z13"/>
+    <mergeCell ref="AF20:AF23"/>
+    <mergeCell ref="AF16:AF19"/>
+    <mergeCell ref="AF10:AF13"/>
+    <mergeCell ref="AF6:AF9"/>
+    <mergeCell ref="AE20:AE23"/>
+    <mergeCell ref="AG20:AG23"/>
+    <mergeCell ref="AG10:AG13"/>
+    <mergeCell ref="AD20:AD23"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="J40:J43"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
